--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2026837.391444987</v>
+        <v>-2032125.506939759</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14362309.04608293</v>
+        <v>14360539.10791167</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>209.2334459827983</v>
       </c>
       <c r="G2" t="n">
-        <v>348.2820052916593</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>105.0108219915655</v>
       </c>
       <c r="C3" t="n">
-        <v>97.55131607832234</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -753,7 +753,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>106.4237627643535</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.1200429400717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>353.3343278693096</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>58.93940529758506</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -984,7 +984,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>49.320320467944</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1029,13 +1029,13 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>66.3162036926461</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1057,25 +1057,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>26.18907025782719</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.45080330270152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>360.6008733946474</v>
+        <v>307.6930714372876</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>12.52349709032272</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914613</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>86.71574409001397</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>144.8820096428165</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
@@ -1433,10 +1433,10 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>33.60139382321917</v>
       </c>
       <c r="T13" t="n">
-        <v>15.78469047790851</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>74.17441438741982</v>
       </c>
       <c r="E14" t="n">
-        <v>257.3003690404759</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1816,7 +1816,7 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1825,10 +1825,10 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>142.9144490181541</v>
       </c>
       <c r="X16" t="n">
-        <v>141.2921066995531</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135901</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973565009</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.57601873167842</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196082</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380055</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667966</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644693</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883906</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541111</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658304</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038955</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656627</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,16 +3275,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>812.1901032098876</v>
+        <v>261.972513362071</v>
       </c>
       <c r="C2" t="n">
-        <v>812.1901032098876</v>
+        <v>261.972513362071</v>
       </c>
       <c r="D2" t="n">
-        <v>812.1901032098876</v>
+        <v>261.972513362071</v>
       </c>
       <c r="E2" t="n">
-        <v>812.1901032098876</v>
+        <v>261.972513362071</v>
       </c>
       <c r="F2" t="n">
-        <v>395.2956647398654</v>
+        <v>50.62559822793125</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>188.1454323035831</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354875</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T2" t="n">
-        <v>1951.282367297165</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="U2" t="n">
-        <v>1951.282367297165</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.175558000683</v>
+        <v>1819.409608251523</v>
       </c>
       <c r="W2" t="n">
-        <v>1609.175558000683</v>
+        <v>1448.41057321981</v>
       </c>
       <c r="X2" t="n">
-        <v>1609.175558000683</v>
+        <v>1058.957968152867</v>
       </c>
       <c r="Y2" t="n">
-        <v>1212.684848921285</v>
+        <v>662.4672590734679</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>790.7440950022744</v>
+        <v>601.9175830570625</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>601.9175830570625</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>471.8286156785429</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>335.3821247894306</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>210.9503186725624</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>90.89050074442689</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442689</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475497</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>347.3800255716915</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M3" t="n">
-        <v>885.6388105817841</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="N3" t="n">
-        <v>1423.897595591877</v>
+        <v>987.9600536479809</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182858</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2150.865926635813</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1973.882114834721</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1763.818971513363</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1541.27896988443</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1311.161724017717</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>1121.854646367728</v>
+        <v>887.3033373467729</v>
       </c>
       <c r="Y3" t="n">
-        <v>942.5404294432358</v>
+        <v>707.9891204222802</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>553.165346648511</v>
+        <v>319.2071149573731</v>
       </c>
       <c r="C4" t="n">
-        <v>553.165346648511</v>
+        <v>149.0019970233623</v>
       </c>
       <c r="D4" t="n">
-        <v>553.165346648511</v>
+        <v>149.0019970233623</v>
       </c>
       <c r="E4" t="n">
-        <v>397.6065345077135</v>
+        <v>149.0019970233623</v>
       </c>
       <c r="F4" t="n">
-        <v>397.6065345077135</v>
+        <v>149.0019970233623</v>
       </c>
       <c r="G4" t="n">
-        <v>229.352480607159</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="X4" t="n">
-        <v>710.8623597192905</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="Y4" t="n">
-        <v>553.165346648511</v>
+        <v>504.4151336486743</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1197.635903810283</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="C5" t="n">
-        <v>1197.635903810283</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="D5" t="n">
-        <v>1197.635903810283</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.635903810283</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.897808704471</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.9374095968</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964321</v>
+        <v>1851.66173537634</v>
       </c>
       <c r="U5" t="n">
-        <v>1910.741748138477</v>
+        <v>1595.909005810939</v>
       </c>
       <c r="V5" t="n">
-        <v>1568.634938841996</v>
+        <v>1253.802196514458</v>
       </c>
       <c r="W5" t="n">
-        <v>1197.635903810283</v>
+        <v>882.8031614827451</v>
       </c>
       <c r="X5" t="n">
-        <v>1197.635903810283</v>
+        <v>882.8031614827451</v>
       </c>
       <c r="Y5" t="n">
-        <v>1197.635903810283</v>
+        <v>882.8031614827451</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>766.255929302677</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>615.6016988627692</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>485.5127314842496</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>349.0662405951373</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442689</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1498.174658585115</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182858</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2039.852292637617</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>1862.868480836526</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1652.805337515167</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="V6" t="n">
-        <v>1430.265335886234</v>
+        <v>1516.790804184832</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1286.673558318119</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1097.366480668131</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>918.0522637436384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>880.8509614285281</v>
+        <v>367.1869157288553</v>
       </c>
       <c r="C7" t="n">
-        <v>710.6458434945173</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="D7" t="n">
-        <v>555.012730397032</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="E7" t="n">
-        <v>399.4539182562345</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="F7" t="n">
-        <v>242.1279834692075</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865301</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>916.4966629768534</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>916.4966629768534</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>916.4966629768534</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>650.5173177976776</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>367.1869157288553</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>367.1869157288553</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.8509614285281</v>
+        <v>367.1869157288553</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1281.393958586371</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="C8" t="n">
-        <v>917.1506521271314</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D8" t="n">
-        <v>531.7095233437991</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>531.7095233437991</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2064.796883612205</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.888704297768</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.888704297768</v>
+        <v>1976.195900010237</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>480.1670983834975</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1464.201482535628</v>
+        <v>90.34123733637369</v>
       </c>
       <c r="C10" t="n">
-        <v>1464.201482535628</v>
+        <v>90.34123733637369</v>
       </c>
       <c r="D10" t="n">
-        <v>1464.201482535628</v>
+        <v>90.34123733637369</v>
       </c>
       <c r="E10" t="n">
-        <v>1464.201482535628</v>
+        <v>90.34123733637369</v>
       </c>
       <c r="F10" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N10" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O10" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P10" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q10" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>2241.747515709757</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>2038.931431892307</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>1803.212380060541</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>1517.773588302442</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>1464.201482535628</v>
+        <v>558.8796580964973</v>
       </c>
       <c r="W10" t="n">
-        <v>1464.201482535628</v>
+        <v>275.549256027675</v>
       </c>
       <c r="X10" t="n">
-        <v>1464.201482535628</v>
+        <v>275.549256027675</v>
       </c>
       <c r="Y10" t="n">
-        <v>1464.201482535628</v>
+        <v>275.549256027675</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1966.681876406338</v>
+        <v>1135.015795124461</v>
       </c>
       <c r="C11" t="n">
-        <v>1645.302650055463</v>
+        <v>813.6365687735847</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>813.6365687735847</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>813.6365687735847</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572338</v>
+        <v>468.5384054497563</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2864.893641007348</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2864.893641007348</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2594.58310685706</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2295.380346971541</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X11" t="n">
-        <v>2295.380346971541</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.380346971541</v>
+        <v>1463.714265689664</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.576743976369</v>
+        <v>403.8135591038543</v>
       </c>
       <c r="C13" t="n">
-        <v>315.1679011885522</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="D13" t="n">
-        <v>231.3310632372608</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="E13" t="n">
-        <v>231.3310632372608</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1462.791839972872</v>
       </c>
       <c r="T13" t="n">
-        <v>1297.663987126155</v>
+        <v>1298.8690632873</v>
       </c>
       <c r="U13" t="n">
-        <v>1084.02147051425</v>
+        <v>1085.226546675395</v>
       </c>
       <c r="V13" t="n">
-        <v>889.8384004812679</v>
+        <v>891.0434766424132</v>
       </c>
       <c r="W13" t="n">
-        <v>678.3042735586391</v>
+        <v>679.5093497197847</v>
       </c>
       <c r="X13" t="n">
-        <v>678.3042735586391</v>
+        <v>517.2253026489617</v>
       </c>
       <c r="Y13" t="n">
-        <v>526.9884875214764</v>
+        <v>517.2253026489617</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1554.427508970421</v>
+        <v>1463.714265689663</v>
       </c>
       <c r="C14" t="n">
-        <v>1233.048282619545</v>
+        <v>1142.335039338787</v>
       </c>
       <c r="D14" t="n">
-        <v>919.4034289824067</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="E14" t="n">
-        <v>659.5040663152593</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F14" t="n">
-        <v>314.405902991431</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.295603492179</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2499.985069341891</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2200.782309456373</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>1883.125979535624</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1883.125979535624</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5364,13 +5364,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1606.310991511064</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>2122.831274102045</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>485.7287123499369</v>
+        <v>485.7287123499372</v>
       </c>
       <c r="C16" t="n">
-        <v>387.3198695621201</v>
+        <v>387.3198695621203</v>
       </c>
       <c r="D16" t="n">
-        <v>387.3198695621201</v>
+        <v>387.3198695621203</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675165</v>
+        <v>303.5573325675167</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>303.5573325675167</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,16 +5434,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
         <v>999.626924813816</v>
@@ -5464,22 +5464,22 @@
         <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245445</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915626</v>
+        <v>905.7825322771344</v>
       </c>
       <c r="W16" t="n">
-        <v>741.8597555915626</v>
+        <v>761.4245029658675</v>
       </c>
       <c r="X16" t="n">
-        <v>599.1404558950443</v>
+        <v>599.1404558950445</v>
       </c>
       <c r="Y16" t="n">
-        <v>599.1404558950443</v>
+        <v>599.1404558950445</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099319</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>346.0196676966397</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>973.7913173233209</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1629.56928853388</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,25 +5674,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5838,16 +5838,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1629.56928853388</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,19 +5911,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6075,16 +6075,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6209,37 +6209,37 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958364</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343939</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6248,7 +6248,7 @@
         <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605752</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6379,7 +6379,7 @@
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796861</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6464,16 +6464,16 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
         <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
         <v>2893.292664647883</v>
@@ -6540,19 +6540,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
         <v>172.0564727746018</v>
@@ -6619,52 +6619,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.380725810811</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835521</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>682.8393851136178</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1287.811797407129</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667232</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2404.684126952458</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038541</v>
+        <v>2844.723727844786</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170063</v>
+        <v>3192.911219976308</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645716</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929726</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404869</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374214</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076163</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>256.6556820777737</v>
+        <v>231.2685546898323</v>
       </c>
       <c r="L34" t="n">
-        <v>420.7833219515735</v>
+        <v>395.396194563632</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898375</v>
+        <v>581.6877729018961</v>
       </c>
       <c r="N34" t="n">
-        <v>895.537627048117</v>
+        <v>876.529527508088</v>
       </c>
       <c r="O34" t="n">
-        <v>1163.515486816895</v>
+        <v>1145.033953152046</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.664745320544</v>
+        <v>1264.910118928625</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.78596262502</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273693</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400721</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045803</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027487</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,13 +6971,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443166</v>
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511122</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445264</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862344</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>313.661451296041</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>278.5901810446702</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L43" t="n">
-        <v>442.71782091847</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>640.3852542562165</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>285.6453651336276</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>397.014252086147</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886037</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>544.4207143410656</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>266.1293161394336</v>
+        <v>657.8797217754571</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8301,16 +8301,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837489</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>539.397881714892</v>
+        <v>574.7607069788185</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>267.4792869621647</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8535,13 +8535,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>474.0454557661826</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9012,16 +9012,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>110.5765941352903</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9240,25 +9240,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>376.3651575480042</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N21" t="n">
-        <v>108.8653421701425</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,19 +9723,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>464.9323088406971</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>335.1420048916683</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>454.532132304693</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>251.2370714721309</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.305274378629022</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
         <v>82.92491162465755</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.108216761325</v>
       </c>
       <c r="T13" t="n">
-        <v>146.4988584408077</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>236.3339907133472</v>
       </c>
       <c r="E14" t="n">
-        <v>70.17900819941308</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>66.50433663524807</v>
       </c>
       <c r="X16" t="n">
-        <v>19.36909990056167</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1258867.91572961</v>
+        <v>1257965.59430897</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1258867.91572961</v>
+        <v>1257965.59430897</v>
       </c>
     </row>
     <row r="4">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>36066.43561867134</v>
+      </c>
+      <c r="C2" t="n">
+        <v>36066.43561867134</v>
+      </c>
+      <c r="D2" t="n">
         <v>36066.43561867136</v>
-      </c>
-      <c r="C2" t="n">
-        <v>36066.43561867136</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36066.43561867135</v>
       </c>
       <c r="E2" t="n">
         <v>31871.80468488012</v>
       </c>
       <c r="F2" t="n">
-        <v>31871.80468488012</v>
+        <v>31871.80468488013</v>
       </c>
       <c r="G2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867135</v>
       </c>
       <c r="H2" t="n">
-        <v>36066.43561867135</v>
+        <v>36066.43561867133</v>
       </c>
       <c r="I2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867134</v>
       </c>
       <c r="J2" t="n">
-        <v>36066.43561867128</v>
+        <v>36066.43561867127</v>
       </c>
       <c r="K2" t="n">
         <v>36066.43561867128</v>
       </c>
       <c r="L2" t="n">
-        <v>36066.43561867131</v>
+        <v>36066.43561867139</v>
       </c>
       <c r="M2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867134</v>
       </c>
       <c r="N2" t="n">
         <v>36066.43561867136</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401337</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728552</v>
+        <v>62456.24177539668</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.52447081111</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746774</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26445,10 +26445,10 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917899</v>
       </c>
       <c r="N4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26491,16 +26491,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315425</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-412638.0217322931</v>
+        <v>-408587.3497248786</v>
       </c>
       <c r="C6" t="n">
-        <v>-230433.0734404373</v>
+        <v>-234728.6926908234</v>
       </c>
       <c r="D6" t="n">
-        <v>-237025.1347801596</v>
+        <v>-244761.4240035511</v>
       </c>
       <c r="E6" t="n">
-        <v>-246234.1509892128</v>
+        <v>-246443.8825359023</v>
       </c>
       <c r="F6" t="n">
-        <v>-134111.5895151682</v>
+        <v>-134321.3210618577</v>
       </c>
       <c r="G6" t="n">
         <v>-230084.9502253203</v>
@@ -26543,16 +26543,16 @@
         <v>-182659.6246886383</v>
       </c>
       <c r="J6" t="n">
-        <v>-395701.5422859239</v>
+        <v>-389185.2571313509</v>
       </c>
       <c r="K6" t="n">
         <v>-188899.3930914213</v>
       </c>
       <c r="L6" t="n">
-        <v>-244081.9820260425</v>
+        <v>-248130.8192365146</v>
       </c>
       <c r="M6" t="n">
-        <v>-224860.4541482613</v>
+        <v>-225912.1491594494</v>
       </c>
       <c r="N6" t="n">
         <v>-182659.6246886383</v>
@@ -26561,7 +26561,7 @@
         <v>-210427.3187314095</v>
       </c>
       <c r="P6" t="n">
-        <v>-182659.6246886383</v>
+        <v>-182659.6246886382</v>
       </c>
     </row>
   </sheetData>
@@ -26713,10 +26713,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6268397466069</v>
+        <v>78.07030221924585</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551345</v>
+        <v>17.58004954287448</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407288</v>
+        <v>117.1268713042789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27388,10 +27388,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>203.4920481025237</v>
       </c>
       <c r="G2" t="n">
-        <v>60.74912266521756</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27430,19 +27430,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>45.26754910498627</v>
       </c>
       <c r="C3" t="n">
-        <v>51.59637205718636</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>60.14775059719537</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.7608976314514</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>43.15547038497334</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>194.2557969721623</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>73.86716758775552</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,13 +27749,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>161.4998697153999</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>174.5988527214489</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27831,16 +27831,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>157.4301372688216</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>28.64287308745133</v>
+        <v>81.5506750448111</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,7 +27916,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28020,7 +28020,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>143.2291783488341</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182379</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,10 +28983,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28995,10 +28995,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="I23" t="n">
         <v>130.3599693155844</v>
@@ -29217,14 +29217,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>35.71049010668817</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29296,25 +29296,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>30.272237659013</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901277</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
@@ -29466,13 +29466,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O28" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431664</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
         <v>93.99127447431646</v>
@@ -29536,19 +29536,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901266</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>43.49509683160204</v>
       </c>
       <c r="O32" t="n">
-        <v>48.65992738833177</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224747</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.9764384404527</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,34 +30141,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5.636002634529035</v>
+        <v>28.01250026485357</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>28.01250026485243</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,31 +30639,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>128.2979821082779</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K43" t="n">
-        <v>35.71049010668865</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,31 +30876,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>28.01250026485285</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L46" t="n">
-        <v>5.63600263452912</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>490.6602026584893</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>136.0815277095312</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>306.9539052292288</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>451.7331554521767</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>117.0108248016495</v>
+        <v>508.761230437673</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35021,16 +35021,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>446.7103228260031</v>
+        <v>482.0731480899295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>117.1778397212395</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>381.6583337168707</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>23.49322931597565</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>286.7682222146709</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462355</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N21" t="n">
-        <v>23.49322931597588</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,10 +36291,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36443,19 +36443,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477934981</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907926</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656005</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36762,13 +36762,13 @@
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122748</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
         <v>97.44803848446894</v>
@@ -36832,19 +36832,19 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>581.7882983101042</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>249.7698920375016</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37069,25 +37069,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044895</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>611.0832447409208</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>576.6378075765132</v>
       </c>
       <c r="O32" t="n">
-        <v>493.1443727341181</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553811</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055077</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37236,16 +37236,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476686</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>271.2165915595536</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.43320245060518</v>
+        <v>116.2366837828623</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457873</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094878</v>
+        <v>213.0525346398124</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>192.3607498019313</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>118.3721477934986</v>
+        <v>210.9596397950879</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500534</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
